--- a/03_Outputs/all/01_TablasDescriptivas/idx5_viviendas_vr.xlsx
+++ b/03_Outputs/all/01_TablasDescriptivas/idx5_viviendas_vr.xlsx
@@ -404,7 +404,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.331650612496904</v>
+        <v>1.331650612496902</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -422,7 +422,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.9641303496876997</v>
+        <v>0.9641303496876992</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.7848047881187863</v>
+        <v>0.7848047881187857</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.4855748608876546</v>
+        <v>0.4855748608876544</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.2045641592448242</v>
+        <v>0.2045641592448237</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>3.56092584206104</v>
+        <v>3.560925842061037</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>4.52505619174874</v>
+        <v>4.525056191748737</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>5.309860979867526</v>
+        <v>5.309860979867523</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>5.79543584075518</v>
+        <v>5.795435840755177</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>6.000000000000004</v>
+        <v>6.000000000000001</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>37.15458715940223</v>
+        <v>37.15458715940225</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>22.19417687494838</v>
+        <v>22.19417687494836</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B19">
-        <v>3.4094026540804</v>
+        <v>3.409402654080393</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -710,7 +710,7 @@
         </is>
       </c>
       <c r="B20">
-        <v>37.15458715940223</v>
+        <v>37.15458715940225</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="B23">
-        <v>88.49768299779204</v>
+        <v>88.49768299779203</v>
       </c>
       <c r="C23">
         <v>4</v>
